--- a/Analytics/I1/Goalmins_i1.xlsx
+++ b/Analytics/I1/Goalmins_i1.xlsx
@@ -82,73 +82,73 @@
     <t>20</t>
   </si>
   <si>
-    <t>Frosinone</t>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Lazio</t>
   </si>
   <si>
     <t>Cagliari</t>
   </si>
   <si>
-    <t>Salernitana</t>
-  </si>
-  <si>
-    <t>Napoli</t>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Udinese</t>
   </si>
   <si>
     <t>Roma</t>
   </si>
   <si>
+    <t>Torino</t>
+  </si>
+  <si>
     <t>Milan</t>
   </si>
   <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Verona</t>
-  </si>
-  <si>
-    <t>Genoa</t>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Juventus</t>
   </si>
   <si>
     <t>Bologna</t>
   </si>
   <si>
-    <t>Lazio</t>
-  </si>
-  <si>
     <t>Empoli</t>
   </si>
   <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
     <t>AwayTeam</t>
   </si>
   <si>
     <t>SUM(TGM)</t>
   </si>
   <si>
-    <t>SUM(TGM) / 38</t>
+    <t>SUM(TGM) / 11</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>3179.0</v>
+        <v>1145.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>3172.0</v>
+        <v>1090.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>3119.0</v>
+        <v>1029.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>2902.0</v>
+        <v>1020.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>2893.0</v>
+        <v>962.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>2881.0</v>
+        <v>900.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>2781.0</v>
+        <v>851.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>2764.0</v>
+        <v>837.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>2704.0</v>
+        <v>833.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>2645.0</v>
+        <v>795.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>2620.0</v>
+        <v>762.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>2599.0</v>
+        <v>656.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>2548.0</v>
+        <v>645.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>2426.0</v>
+        <v>606.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>2334.0</v>
+        <v>536.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>2244.0</v>
+        <v>532.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>1887.0</v>
+        <v>515.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>1843.0</v>
+        <v>467.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>1780.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>1546.0</v>
+        <v>306.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C2" t="n">
-        <v>3654.0</v>
+        <v>1135.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>3107.0</v>
+        <v>1077.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>2988.0</v>
+        <v>976.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>2867.0</v>
+        <v>858.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>2866.0</v>
+        <v>840.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
-        <v>2750.0</v>
+        <v>828.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>2687.0</v>
+        <v>746.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C9" t="n">
-        <v>2631.0</v>
+        <v>742.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>2594.0</v>
+        <v>741.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>2560.0</v>
+        <v>709.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C12" t="n">
-        <v>2555.0</v>
+        <v>707.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C13" t="n">
-        <v>2441.0</v>
+        <v>703.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" t="n">
-        <v>2409.0</v>
+        <v>691.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>2303.0</v>
+        <v>690.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C16" t="n">
-        <v>2247.0</v>
+        <v>656.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C17" t="n">
-        <v>2167.0</v>
+        <v>654.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C18" t="n">
-        <v>2129.0</v>
+        <v>570.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19" t="n">
-        <v>2085.0</v>
+        <v>560.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>2083.0</v>
+        <v>526.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C21" t="n">
-        <v>1744.0</v>
+        <v>429.0</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>6535.0</v>
+        <v>1930.0</v>
       </c>
       <c r="D2" t="n">
-        <v>171.97368421052633</v>
+        <v>175.45454545454547</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>6039.0</v>
+        <v>1910.0</v>
       </c>
       <c r="D3" t="n">
-        <v>158.92105263157896</v>
+        <v>173.63636363636363</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>5881.0</v>
+        <v>1891.0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.76315789473685</v>
+        <v>171.9090909090909</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>5739.0</v>
+        <v>1876.0</v>
       </c>
       <c r="D5" t="n">
-        <v>151.02631578947367</v>
+        <v>170.54545454545453</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>5706.0</v>
+        <v>1820.0</v>
       </c>
       <c r="D6" t="n">
-        <v>150.1578947368421</v>
+        <v>165.45454545454547</v>
       </c>
     </row>
     <row r="7">
@@ -773,10 +773,10 @@
         <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>5674.0</v>
+        <v>1770.0</v>
       </c>
       <c r="D7" t="n">
-        <v>149.31578947368422</v>
+        <v>160.9090909090909</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>5630.0</v>
+        <v>1676.0</v>
       </c>
       <c r="D8" t="n">
-        <v>148.1578947368421</v>
+        <v>152.36363636363637</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C9" t="n">
-        <v>5589.0</v>
+        <v>1671.0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.07894736842104</v>
+        <v>151.9090909090909</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C10" t="n">
-        <v>5531.0</v>
+        <v>1504.0</v>
       </c>
       <c r="D10" t="n">
-        <v>145.55263157894737</v>
+        <v>136.72727272727272</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>5007.0</v>
+        <v>1421.0</v>
       </c>
       <c r="D11" t="n">
-        <v>131.76315789473685</v>
+        <v>129.1818181818182</v>
       </c>
     </row>
     <row r="12">
@@ -843,10 +843,10 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>4867.0</v>
+        <v>1416.0</v>
       </c>
       <c r="D12" t="n">
-        <v>128.07894736842104</v>
+        <v>128.72727272727272</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C13" t="n">
-        <v>4730.0</v>
+        <v>1387.0</v>
       </c>
       <c r="D13" t="n">
-        <v>124.47368421052632</v>
+        <v>126.0909090909091</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="n">
-        <v>4631.0</v>
+        <v>1309.0</v>
       </c>
       <c r="D14" t="n">
-        <v>121.86842105263158</v>
+        <v>119.0</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C15" t="n">
-        <v>4555.0</v>
+        <v>1266.0</v>
       </c>
       <c r="D15" t="n">
-        <v>119.86842105263158</v>
+        <v>115.0909090909091</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" t="n">
-        <v>4518.0</v>
+        <v>1222.0</v>
       </c>
       <c r="D16" t="n">
-        <v>118.89473684210526</v>
+        <v>111.0909090909091</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" t="n">
-        <v>4501.0</v>
+        <v>1216.0</v>
       </c>
       <c r="D17" t="n">
-        <v>118.44736842105263</v>
+        <v>110.54545454545455</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>4437.0</v>
+        <v>1206.0</v>
       </c>
       <c r="D18" t="n">
-        <v>116.76315789473684</v>
+        <v>109.63636363636364</v>
       </c>
     </row>
     <row r="19">
@@ -941,10 +941,10 @@
         <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>4221.0</v>
+        <v>1179.0</v>
       </c>
       <c r="D19" t="n">
-        <v>111.07894736842105</v>
+        <v>107.18181818181819</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20" t="n">
-        <v>3988.0</v>
+        <v>1174.0</v>
       </c>
       <c r="D20" t="n">
-        <v>104.94736842105263</v>
+        <v>106.72727272727273</v>
       </c>
     </row>
     <row r="21">
@@ -969,10 +969,10 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>3955.0</v>
+        <v>832.0</v>
       </c>
       <c r="D21" t="n">
-        <v>104.07894736842105</v>
+        <v>75.63636363636364</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/I1/Goalmins_i1.xlsx
+++ b/Analytics/I1/Goalmins_i1.xlsx
@@ -82,58 +82,58 @@
     <t>20</t>
   </si>
   <si>
+    <t>Parma</t>
+  </si>
+  <si>
     <t>Atalanta</t>
   </si>
   <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
     <t>Genoa</t>
   </si>
   <si>
-    <t>Verona</t>
-  </si>
-  <si>
-    <t>Parma</t>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Lecce</t>
   </si>
   <si>
     <t>Inter</t>
   </si>
   <si>
-    <t>Como</t>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Juventus</t>
   </si>
   <si>
     <t>Napoli</t>
   </si>
   <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
     <t>Fiorentina</t>
   </si>
   <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
     <t>Monza</t>
   </si>
   <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
     <t>Torino</t>
   </si>
   <si>
     <t>Milan</t>
-  </si>
-  <si>
-    <t>Venezia</t>
-  </si>
-  <si>
-    <t>Juventus</t>
   </si>
   <si>
     <t>Bologna</t>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>1145.0</v>
+        <v>1582.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>1090.0</v>
+        <v>1427.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>1029.0</v>
+        <v>1341.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>1020.0</v>
+        <v>1309.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>962.0</v>
+        <v>1257.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>900.0</v>
+        <v>1257.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>851.0</v>
+        <v>1204.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>837.0</v>
+        <v>1189.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>833.0</v>
+        <v>1187.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>795.0</v>
+        <v>1063.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>762.0</v>
+        <v>1056.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>656.0</v>
+        <v>984.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>645.0</v>
+        <v>957.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>606.0</v>
+        <v>954.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>536.0</v>
+        <v>865.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>532.0</v>
+        <v>815.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>515.0</v>
+        <v>689.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>467.0</v>
+        <v>664.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>351.0</v>
+        <v>571.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>306.0</v>
+        <v>475.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C2" t="n">
-        <v>1135.0</v>
+        <v>1605.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
-        <v>1077.0</v>
+        <v>1341.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
-        <v>976.0</v>
+        <v>1307.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>858.0</v>
+        <v>1233.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>840.0</v>
+        <v>1166.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>828.0</v>
+        <v>1137.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C8" t="n">
-        <v>746.0</v>
+        <v>1125.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" t="n">
-        <v>742.0</v>
+        <v>1105.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C10" t="n">
-        <v>741.0</v>
+        <v>1079.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>709.0</v>
+        <v>994.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>707.0</v>
+        <v>937.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>703.0</v>
+        <v>920.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C14" t="n">
-        <v>691.0</v>
+        <v>912.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C15" t="n">
-        <v>690.0</v>
+        <v>905.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C16" t="n">
-        <v>656.0</v>
+        <v>900.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="n">
-        <v>654.0</v>
+        <v>896.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C18" t="n">
-        <v>570.0</v>
+        <v>865.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>560.0</v>
+        <v>856.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C20" t="n">
-        <v>526.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>29</v>
       </c>
       <c r="C21" t="n">
-        <v>429.0</v>
+        <v>763.0</v>
       </c>
     </row>
   </sheetData>
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>1930.0</v>
+        <v>2564.0</v>
       </c>
       <c r="D2" t="n">
-        <v>175.45454545454547</v>
+        <v>233.0909090909091</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>1910.0</v>
+        <v>2542.0</v>
       </c>
       <c r="D3" t="n">
-        <v>173.63636363636363</v>
+        <v>231.0909090909091</v>
       </c>
     </row>
     <row r="4">
@@ -731,10 +731,10 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>1891.0</v>
+        <v>2487.0</v>
       </c>
       <c r="D4" t="n">
-        <v>171.9090909090909</v>
+        <v>226.0909090909091</v>
       </c>
     </row>
     <row r="5">
@@ -745,10 +745,10 @@
         <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>1876.0</v>
+        <v>2423.0</v>
       </c>
       <c r="D5" t="n">
-        <v>170.54545454545453</v>
+        <v>220.27272727272728</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C6" t="n">
-        <v>1820.0</v>
+        <v>2404.0</v>
       </c>
       <c r="D6" t="n">
-        <v>165.45454545454547</v>
+        <v>218.54545454545453</v>
       </c>
     </row>
     <row r="7">
@@ -773,10 +773,10 @@
         <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>1770.0</v>
+        <v>2278.0</v>
       </c>
       <c r="D7" t="n">
-        <v>160.9090909090909</v>
+        <v>207.0909090909091</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>1676.0</v>
+        <v>2181.0</v>
       </c>
       <c r="D8" t="n">
-        <v>152.36363636363637</v>
+        <v>198.27272727272728</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>1671.0</v>
+        <v>2177.0</v>
       </c>
       <c r="D9" t="n">
-        <v>151.9090909090909</v>
+        <v>197.9090909090909</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C10" t="n">
-        <v>1504.0</v>
+        <v>2176.0</v>
       </c>
       <c r="D10" t="n">
-        <v>136.72727272727272</v>
+        <v>197.8181818181818</v>
       </c>
     </row>
     <row r="11">
@@ -829,10 +829,10 @@
         <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>1421.0</v>
+        <v>2104.0</v>
       </c>
       <c r="D11" t="n">
-        <v>129.1818181818182</v>
+        <v>191.27272727272728</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C12" t="n">
-        <v>1416.0</v>
+        <v>2079.0</v>
       </c>
       <c r="D12" t="n">
-        <v>128.72727272727272</v>
+        <v>189.0</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C13" t="n">
-        <v>1387.0</v>
+        <v>1996.0</v>
       </c>
       <c r="D13" t="n">
-        <v>126.0909090909091</v>
+        <v>181.45454545454547</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="n">
-        <v>1309.0</v>
+        <v>1970.0</v>
       </c>
       <c r="D14" t="n">
-        <v>119.0</v>
+        <v>179.0909090909091</v>
       </c>
     </row>
     <row r="15">
@@ -885,10 +885,10 @@
         <v>29</v>
       </c>
       <c r="C15" t="n">
-        <v>1266.0</v>
+        <v>1952.0</v>
       </c>
       <c r="D15" t="n">
-        <v>115.0909090909091</v>
+        <v>177.45454545454547</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>1222.0</v>
+        <v>1921.0</v>
       </c>
       <c r="D16" t="n">
-        <v>111.0909090909091</v>
+        <v>174.63636363636363</v>
       </c>
     </row>
     <row r="17">
@@ -913,10 +913,10 @@
         <v>33</v>
       </c>
       <c r="C17" t="n">
-        <v>1216.0</v>
+        <v>1880.0</v>
       </c>
       <c r="D17" t="n">
-        <v>110.54545454545455</v>
+        <v>170.9090909090909</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C18" t="n">
-        <v>1206.0</v>
+        <v>1757.0</v>
       </c>
       <c r="D18" t="n">
-        <v>109.63636363636364</v>
+        <v>159.72727272727272</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>1179.0</v>
+        <v>1743.0</v>
       </c>
       <c r="D19" t="n">
-        <v>107.18181818181819</v>
+        <v>158.45454545454547</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" t="n">
-        <v>1174.0</v>
+        <v>1671.0</v>
       </c>
       <c r="D20" t="n">
-        <v>106.72727272727273</v>
+        <v>151.9090909090909</v>
       </c>
     </row>
     <row r="21">
@@ -969,10 +969,10 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>832.0</v>
+        <v>1387.0</v>
       </c>
       <c r="D21" t="n">
-        <v>75.63636363636364</v>
+        <v>126.0909090909091</v>
       </c>
     </row>
   </sheetData>
